--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My GIT Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91C124A-575F-4126-BC61-352338582D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE7B632-67E4-40C0-A95C-FECA759759FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>Combist</t>
-  </si>
-  <si>
     <t>TipoRelat</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>distancia.refinaria.max</t>
+  </si>
+  <si>
+    <t>Combust</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC38ADB-3BE1-4C49-A6B5-3A77CABD8E46}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,23 +693,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -909,66 +909,66 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066D85FD-4CF6-4E48-A079-7F5D6EFB2383}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,15 +993,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -1161,66 +1161,66 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My GIT Projects\Spatial-Statistics-Applications\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My Git Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE7B632-67E4-40C0-A95C-FECA759759FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052B630-B0B4-4CB8-96C4-00D2E24F931C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
     <sheet name="gas_prices_station" sheetId="2" r:id="rId2"/>
+    <sheet name="PIB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
   <si>
     <t>index</t>
   </si>
@@ -325,6 +326,272 @@
   </si>
   <si>
     <t>Combust</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Código da Grande Região</t>
+  </si>
+  <si>
+    <t>Nome da Grande Região</t>
+  </si>
+  <si>
+    <t>Código da Unidade da Federação</t>
+  </si>
+  <si>
+    <t>Sigla da Unidade da Federação</t>
+  </si>
+  <si>
+    <t>Nome da Unidade da Federação</t>
+  </si>
+  <si>
+    <t>Código do Município</t>
+  </si>
+  <si>
+    <t>Nome do Município</t>
+  </si>
+  <si>
+    <t>Região Metropolitana</t>
+  </si>
+  <si>
+    <t>Código da Mesorregião</t>
+  </si>
+  <si>
+    <t>Nome da Mesorregião</t>
+  </si>
+  <si>
+    <t>Código da Microrregião</t>
+  </si>
+  <si>
+    <t>Nome da Microrregião</t>
+  </si>
+  <si>
+    <t>Código da Região Geográfica Imediata</t>
+  </si>
+  <si>
+    <t>Nome da Região Geográfica Imediata</t>
+  </si>
+  <si>
+    <t>Município da Região Geográfica Imediata</t>
+  </si>
+  <si>
+    <t>Código da Região Geográfica Intermediária</t>
+  </si>
+  <si>
+    <t>Nome da Região Geográfica Intermediária</t>
+  </si>
+  <si>
+    <t>Município da Região Geográfica Intermediária</t>
+  </si>
+  <si>
+    <t>Código Concentração Urbana</t>
+  </si>
+  <si>
+    <t>Nome Concentração Urbana</t>
+  </si>
+  <si>
+    <t>Tipo Concentração Urbana</t>
+  </si>
+  <si>
+    <t>Código Arranjo Populacional</t>
+  </si>
+  <si>
+    <t>Nome Arranjo Populacional</t>
+  </si>
+  <si>
+    <t>Hierarquia Urbana</t>
+  </si>
+  <si>
+    <t>Hierarquia Urbana (principais categorias)</t>
+  </si>
+  <si>
+    <t>Código da Região Rural</t>
+  </si>
+  <si>
+    <t>Nome da Região Rural</t>
+  </si>
+  <si>
+    <t>Região rural (segundo classificação do núcleo)</t>
+  </si>
+  <si>
+    <t>Amazônia Legal</t>
+  </si>
+  <si>
+    <t>Semiárido</t>
+  </si>
+  <si>
+    <t>Cidade-Região de São Paulo</t>
+  </si>
+  <si>
+    <t>Valor adicionado bruto da Agropecuária, 
+a preços correntes
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Valor adicionado bruto da Indústria,
+a preços correntes
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Valor adicionado bruto dos Serviços,
+a preços correntes 
+- exceto Administração, defesa, educação e saúde públicas e seguridade social
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Valor adicionado bruto da Administração, defesa, educação e saúde públicas e seguridade social, 
+a preços correntes
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Valor adicionado bruto total, 
+a preços correntes
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Impostos, líquidos de subsídios, sobre produtos, 
+a preços correntes
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Produto Interno Bruto, 
+a preços correntes
+(R$ 1.000)</t>
+  </si>
+  <si>
+    <t>Produto Interno Bruto per capita, 
+a preços correntes
+(R$ 1,00)</t>
+  </si>
+  <si>
+    <t>Atividade com maior valor adicionado bruto</t>
+  </si>
+  <si>
+    <t>Atividade com segundo maior valor adicionado bruto</t>
+  </si>
+  <si>
+    <t>Atividade com terceiro maior valor adicionado bruto</t>
+  </si>
+  <si>
+    <t>CdGraReg</t>
+  </si>
+  <si>
+    <t>NmGraReg</t>
+  </si>
+  <si>
+    <t>CodUF</t>
+  </si>
+  <si>
+    <t>SiglaUF</t>
+  </si>
+  <si>
+    <t>NmUF</t>
+  </si>
+  <si>
+    <t>RgMetrop</t>
+  </si>
+  <si>
+    <t>CdMesoreg</t>
+  </si>
+  <si>
+    <t>NmMesoreg</t>
+  </si>
+  <si>
+    <t>CdMicroreg</t>
+  </si>
+  <si>
+    <t>NmMicroreg</t>
+  </si>
+  <si>
+    <t>CdRegGeoIm</t>
+  </si>
+  <si>
+    <t>NmRegGeoIm</t>
+  </si>
+  <si>
+    <t>MnRegGeoIm</t>
+  </si>
+  <si>
+    <t>CdRegGeoInt</t>
+  </si>
+  <si>
+    <t>NmRegGeoInt</t>
+  </si>
+  <si>
+    <t>MnRegGeoInt</t>
+  </si>
+  <si>
+    <t>CdConcenUrb</t>
+  </si>
+  <si>
+    <t>NmConcenUrb</t>
+  </si>
+  <si>
+    <t>TpConcenUrb</t>
+  </si>
+  <si>
+    <t>CdArrPop</t>
+  </si>
+  <si>
+    <t>NmArrPop</t>
+  </si>
+  <si>
+    <t>HierUrb</t>
+  </si>
+  <si>
+    <t>HierUrbPrinpCat</t>
+  </si>
+  <si>
+    <t>CdRegRural</t>
+  </si>
+  <si>
+    <t>NmRegRural</t>
+  </si>
+  <si>
+    <t>RegRural</t>
+  </si>
+  <si>
+    <t>AmzLegal</t>
+  </si>
+  <si>
+    <t>Seminario</t>
+  </si>
+  <si>
+    <t>CidadeRegSP</t>
+  </si>
+  <si>
+    <t>ValAdic_1</t>
+  </si>
+  <si>
+    <t>ValAdic_2</t>
+  </si>
+  <si>
+    <t>ValAdic_3</t>
+  </si>
+  <si>
+    <t>ValAdic_4</t>
+  </si>
+  <si>
+    <t>ValAdic_5</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>PIBPerCapCorr</t>
+  </si>
+  <si>
+    <t>PIBCorr</t>
+  </si>
+  <si>
+    <t>Atividade_1</t>
+  </si>
+  <si>
+    <t>Atividade_2</t>
+  </si>
+  <si>
+    <t>Atividade_3</t>
   </si>
 </sst>
 </file>
@@ -678,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC38ADB-3BE1-4C49-A6B5-3A77CABD8E46}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +1249,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,4 +1493,375 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ABC78-E4D1-4FC1-8D45-B19F88A20009}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My Git Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D052B630-B0B4-4CB8-96C4-00D2E24F931C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE043FCE-CAC6-4BD8-A3C6-214B698F51AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="2472" yWindow="-9972" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
     <sheet name="gas_prices_station" sheetId="2" r:id="rId2"/>
     <sheet name="PIB" sheetId="3" r:id="rId3"/>
+    <sheet name="Pop" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
   <si>
     <t>index</t>
   </si>
@@ -592,6 +593,27 @@
   </si>
   <si>
     <t>Atividade_3</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>COD. UF</t>
+  </si>
+  <si>
+    <t>COD. MUNIC</t>
+  </si>
+  <si>
+    <t>NOME DO MUNICÍPIO</t>
+  </si>
+  <si>
+    <t>POPULAÇÃO ESTIMADA</t>
+  </si>
+  <si>
+    <t>CdUF</t>
+  </si>
+  <si>
+    <t>PopEstimada</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ABC78-E4D1-4FC1-8D45-B19F88A20009}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,4 +1886,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE131B96-88F3-47F7-9A74-AC8625EC76F4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My Git Projects\Spatial-Statistics-Applications\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My GIT Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE043FCE-CAC6-4BD8-A3C6-214B698F51AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED84568-B216-4090-BA1A-7ECDAA396EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="-9972" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="2124" yWindow="-10320" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
     <sheet name="gas_prices_station" sheetId="2" r:id="rId2"/>
     <sheet name="PIB" sheetId="3" r:id="rId3"/>
     <sheet name="Pop" sheetId="4" r:id="rId4"/>
+    <sheet name="PIB_change" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
   <si>
     <t>index</t>
   </si>
@@ -614,6 +615,48 @@
   </si>
   <si>
     <t>PopEstimada</t>
+  </si>
+  <si>
+    <t>PIB_2016</t>
+  </si>
+  <si>
+    <t>PIB_2017</t>
+  </si>
+  <si>
+    <t>PIBCap2016</t>
+  </si>
+  <si>
+    <t>PIBCap2017</t>
+  </si>
+  <si>
+    <t>ChgPIB</t>
+  </si>
+  <si>
+    <t>ChgPIBCap</t>
+  </si>
+  <si>
+    <t>PopEst</t>
+  </si>
+  <si>
+    <t>PIB a preços correntes de 2016</t>
+  </si>
+  <si>
+    <t>PIB a preços correntes de 2017</t>
+  </si>
+  <si>
+    <t>PIB per capta a preços correntes de 2016</t>
+  </si>
+  <si>
+    <t>PIB per capta a preços correntes de 2017</t>
+  </si>
+  <si>
+    <t>Variação do PIB de 2017 para 2016</t>
+  </si>
+  <si>
+    <t>Variação do PIB per Capta de 2017 para 2016</t>
+  </si>
+  <si>
+    <t>Populção Estimada</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1011,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,7 +1935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE131B96-88F3-47F7-9A74-AC8625EC76F4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1950,4 +1995,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442441A6-3218-4EB7-8345-9AFD7F53D12E}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My GIT Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED84568-B216-4090-BA1A-7ECDAA396EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D942E85-5054-4F0C-AD4C-D8D6C8D937D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="-10320" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="2124" yWindow="-10320" windowWidth="17280" windowHeight="8964" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
   <si>
     <t>index</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>Munip</t>
-  </si>
-  <si>
-    <t>municipio</t>
   </si>
   <si>
     <t>DistMean</t>
@@ -1008,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC38ADB-3BE1-4C49-A6B5-3A77CABD8E46}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,210 +1030,210 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1297,10 +1294,58 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1493,66 +1538,66 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1584,50 +1629,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1635,7 +1680,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1643,287 +1688,287 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1954,18 +1999,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +2018,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,15 +2026,15 @@
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2001,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442441A6-3218-4EB7-8345-9AFD7F53D12E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,58 +2073,58 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My GIT Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D942E85-5054-4F0C-AD4C-D8D6C8D937D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D4B84-C868-4493-BF0E-A553186C409E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="-10320" windowWidth="17280" windowHeight="8964" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
   <si>
     <t>index</t>
   </si>
@@ -654,6 +654,18 @@
   </si>
   <si>
     <t>Populção Estimada</t>
+  </si>
+  <si>
+    <t>X_COORD</t>
+  </si>
+  <si>
+    <t>Y_COORD</t>
+  </si>
+  <si>
+    <t>X cordenada da sede do município</t>
+  </si>
+  <si>
+    <t>Y cordenada da sede do município</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC38ADB-3BE1-4C49-A6B5-3A77CABD8E46}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,6 +1358,22 @@
       </c>
       <c r="B41" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/mnemonico.xlsx
+++ b/data/processed/mnemonico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rodri\My GIT Projects\Spatial-Statistics-Applications\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D4B84-C868-4493-BF0E-A553186C409E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8196B-2D2F-409A-AFDD-16FF603E294A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{E9A7D7E9-67B1-4E65-B3DA-DC5054B043AF}"/>
   </bookViews>
   <sheets>
     <sheet name="gas_prices_hist" sheetId="1" r:id="rId1"/>
@@ -37,124 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>data.inicial</t>
-  </si>
-  <si>
-    <t>data.final</t>
-  </si>
-  <si>
-    <t>região</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>município</t>
-  </si>
-  <si>
-    <t>produto</t>
-  </si>
-  <si>
-    <t>número.de.postos.pesquisados</t>
-  </si>
-  <si>
-    <t>unidade.de.medida</t>
-  </si>
-  <si>
-    <t>preço.médio.revenda</t>
-  </si>
-  <si>
-    <t>desvio.padrão.revenda</t>
-  </si>
-  <si>
-    <t>preço.mínimo.revenda</t>
-  </si>
-  <si>
-    <t>preço.máximo.revenda</t>
-  </si>
-  <si>
-    <t>margem.média.revenda</t>
-  </si>
-  <si>
-    <t>coef.de.variação.revenda</t>
-  </si>
-  <si>
-    <t>preço.médio.distribuição</t>
-  </si>
-  <si>
-    <t>desvio.padrão.distribuição</t>
-  </si>
-  <si>
-    <t>preço.mínimo.distribuição</t>
-  </si>
-  <si>
-    <t>preço.máximo.distribuição</t>
-  </si>
-  <si>
-    <t>coef.de.variação.distribuição</t>
-  </si>
-  <si>
-    <t>intervalo.de.tempo</t>
-  </si>
-  <si>
-    <t>período</t>
-  </si>
-  <si>
-    <t>combustível</t>
-  </si>
-  <si>
-    <t>tipo.relatório</t>
-  </si>
-  <si>
-    <t>codigo.ibge</t>
-  </si>
-  <si>
-    <t>station.id</t>
-  </si>
-  <si>
-    <t>razão.social</t>
-  </si>
-  <si>
-    <t>endereço</t>
-  </si>
-  <si>
-    <t>bairro</t>
-  </si>
-  <si>
-    <t>bandeira</t>
-  </si>
-  <si>
-    <t>preço.venda</t>
-  </si>
-  <si>
-    <t>preço.compra</t>
-  </si>
-  <si>
-    <t>modalidade.de.compra</t>
-  </si>
-  <si>
-    <t>fornecedor</t>
-  </si>
-  <si>
-    <t>data.coleta</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="195">
   <si>
     <t>UnidMedida</t>
   </si>
@@ -298,30 +181,6 @@
   </si>
   <si>
     <t>RefinMax</t>
-  </si>
-  <si>
-    <t>distancia.distribuidora.media</t>
-  </si>
-  <si>
-    <t>distancia.distribuidora.desvio.padrao</t>
-  </si>
-  <si>
-    <t>distancia.distribuidora.min</t>
-  </si>
-  <si>
-    <t>distancia.distribuidora.max</t>
-  </si>
-  <si>
-    <t>distancia.refinaria.media</t>
-  </si>
-  <si>
-    <t>distancia.refinaria.desvio.padrao</t>
-  </si>
-  <si>
-    <t>distancia.refinaria.min</t>
-  </si>
-  <si>
-    <t>distancia.refinaria.max</t>
   </si>
   <si>
     <t>Combust</t>
@@ -596,18 +455,6 @@
     <t>UF</t>
   </si>
   <si>
-    <t>COD. UF</t>
-  </si>
-  <si>
-    <t>COD. MUNIC</t>
-  </si>
-  <si>
-    <t>NOME DO MUNICÍPIO</t>
-  </si>
-  <si>
-    <t>POPULAÇÃO ESTIMADA</t>
-  </si>
-  <si>
     <t>CdUF</t>
   </si>
   <si>
@@ -666,6 +513,132 @@
   </si>
   <si>
     <t>Y cordenada da sede do município</t>
+  </si>
+  <si>
+    <t>Código do IBGE</t>
+  </si>
+  <si>
+    <t>Data Inicial</t>
+  </si>
+  <si>
+    <t>Data Final</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Município</t>
+  </si>
+  <si>
+    <t>Número de postos pesquisados</t>
+  </si>
+  <si>
+    <t>Unidade de Medida</t>
+  </si>
+  <si>
+    <t>Preço Médio de Revenda</t>
+  </si>
+  <si>
+    <t>Desvio Padrão do Preço Médio de Revenda</t>
+  </si>
+  <si>
+    <t>Preço Mínimo de Revenda</t>
+  </si>
+  <si>
+    <t>Preço Máximo de Revenda</t>
+  </si>
+  <si>
+    <t>Margem Média de Revenda</t>
+  </si>
+  <si>
+    <t>Coeficiente de Variação de Revenda</t>
+  </si>
+  <si>
+    <t>Preço Médio de Distribuição</t>
+  </si>
+  <si>
+    <t>Desvio Padrão do Preço Médio de Distribuição</t>
+  </si>
+  <si>
+    <t>Preço Mínimo de Distribuição</t>
+  </si>
+  <si>
+    <t>Preço Máximo de Distribuição</t>
+  </si>
+  <si>
+    <t>Coeficiente de Variação de Distribuição</t>
+  </si>
+  <si>
+    <t>Margem Média de Distribuição</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Combustível</t>
+  </si>
+  <si>
+    <t>Tipo de Relatório</t>
+  </si>
+  <si>
+    <t>Distância média para as 10 distribuidoras mais próximas</t>
+  </si>
+  <si>
+    <t>Desvo padrão da distância para as 10 distribuidoras mais próximas</t>
+  </si>
+  <si>
+    <t>Distância mínima para as 10 distribuidoras mais próximas</t>
+  </si>
+  <si>
+    <t>Distância máxima para as 10 distribuidoras mais próximas</t>
+  </si>
+  <si>
+    <t>Distância média para as refinarias</t>
+  </si>
+  <si>
+    <t>Desvo padrão da distância para as refinarias</t>
+  </si>
+  <si>
+    <t>Distância mínima para as refinarias</t>
+  </si>
+  <si>
+    <t>Distância máxima para as refinarias</t>
+  </si>
+  <si>
+    <t>Variação do PIB de 2016 para 2017</t>
+  </si>
+  <si>
+    <t>Variação do PIB per Capita de 2016 para 2017</t>
+  </si>
+  <si>
+    <t>ID do Posto</t>
+  </si>
+  <si>
+    <t>Razão Social</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Preço de Venda</t>
+  </si>
+  <si>
+    <t>Preço de Compra</t>
+  </si>
+  <si>
+    <t>Modalidade de Compra</t>
+  </si>
+  <si>
+    <t>Data da Coleta</t>
+  </si>
+  <si>
+    <t>Código do Estado</t>
+  </si>
+  <si>
+    <t>Código fo IBGE</t>
+  </si>
+  <si>
+    <t>População Estimada</t>
   </si>
 </sst>
 </file>
@@ -1019,9 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC38ADB-3BE1-4C49-A6B5-3A77CABD8E46}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1034,55 +1005,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1090,290 +1061,290 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1386,9 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066D85FD-4CF6-4E48-A079-7F5D6EFB2383}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1398,135 +1367,135 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1534,98 +1503,98 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1649,354 +1618,354 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2008,9 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE131B96-88F3-47F7-9A74-AC8625EC76F4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2019,50 +1986,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2042,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,74 +2052,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
